--- a/medicine/Hématologie/Media_(artère)/Media_(artère).xlsx
+++ b/medicine/Hématologie/Media_(artère)/Media_(artère).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Media_(art%C3%A8re)</t>
+          <t>Media_(artère)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La media est la tunique intermédiaire d'un vaisseau artériel. Cette tunique est composée de cellules musculaires lisses, d'un tissu conjonctif élastique et de collagène. La paroi des artères est composée de trois tuniques qui sont, de l'intérieur vers l'extérieur : l'intima, la media et l'adventice.
-Elle permet aux vaisseaux sanguins de stocker une certaine énergie élastique qui de ce fait ajoute une capacité de dilatation aux vaisseaux sanguins, fondamentale pour les artères (notamment l'aorte). Cette capacité élastique peut se perdre avec le vieillissement de l'individu mais aussi pathologiquement avec l'artériosclérose qui touche donc la media [1]des artères.
+Elle permet aux vaisseaux sanguins de stocker une certaine énergie élastique qui de ce fait ajoute une capacité de dilatation aux vaisseaux sanguins, fondamentale pour les artères (notamment l'aorte). Cette capacité élastique peut se perdre avec le vieillissement de l'individu mais aussi pathologiquement avec l'artériosclérose qui touche donc la media des artères.
 </t>
         </is>
       </c>
